--- a/web_crawler/nacevalixl.xlsx
+++ b/web_crawler/nacevalixl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B51CD4-805C-47B0-8784-5C51F8628C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7805BC-4640-4E01-8062-DD9A4B6B0E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5820" yWindow="3315" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5837,10 +5837,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B829"/>
+  <dimension ref="A1:B827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A794" workbookViewId="0">
+      <selection activeCell="S809" sqref="S809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5864,7 +5864,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -5872,7 +5872,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -5880,7 +5880,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5888,7 +5888,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -5896,7 +5896,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5904,7 +5904,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -5912,7 +5912,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -5920,7 +5920,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -5928,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5936,7 +5936,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -5944,7 +5944,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -5952,7 +5952,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -5960,7 +5960,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -5968,7 +5968,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -5976,7 +5976,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5984,7 +5984,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>725</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -5992,7 +5992,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -6000,15 +6000,15 @@
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -6016,7 +6016,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -6024,7 +6024,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -6032,7 +6032,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6040,7 +6040,7 @@
         <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -6048,7 +6048,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -6056,15 +6056,15 @@
         <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -6072,7 +6072,7 @@
         <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -6080,7 +6080,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -6088,7 +6088,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -6096,7 +6096,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -6104,7 +6104,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -6112,7 +6112,7 @@
         <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -6120,7 +6120,7 @@
         <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -6128,7 +6128,7 @@
         <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -6136,7 +6136,7 @@
         <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -6144,7 +6144,7 @@
         <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -6152,7 +6152,7 @@
         <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -6160,7 +6160,7 @@
         <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -6168,7 +6168,7 @@
         <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -6176,7 +6176,7 @@
         <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>737</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -6184,7 +6184,7 @@
         <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -6192,7 +6192,7 @@
         <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>899</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -6200,7 +6200,7 @@
         <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -6208,7 +6208,7 @@
         <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -6216,7 +6216,7 @@
         <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>983</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -6224,7 +6224,7 @@
         <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -6232,7 +6232,7 @@
         <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -6240,7 +6240,7 @@
         <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -6248,7 +6248,7 @@
         <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -6256,7 +6256,7 @@
         <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -6264,7 +6264,7 @@
         <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -6272,7 +6272,7 @@
         <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>105</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -6280,7 +6280,7 @@
         <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -6288,7 +6288,7 @@
         <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>109</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -6296,7 +6296,7 @@
         <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>111</v>
+        <v>671</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -6304,7 +6304,7 @@
         <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -6312,7 +6312,7 @@
         <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -6320,7 +6320,7 @@
         <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>117</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -6328,7 +6328,7 @@
         <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -6336,7 +6336,7 @@
         <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -6344,7 +6344,7 @@
         <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -6352,7 +6352,7 @@
         <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -6360,7 +6360,7 @@
         <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>679</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -6368,7 +6368,7 @@
         <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -6376,7 +6376,7 @@
         <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -6384,7 +6384,7 @@
         <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -6392,7 +6392,7 @@
         <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -6400,7 +6400,7 @@
         <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -6408,7 +6408,7 @@
         <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>139</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -6416,7 +6416,7 @@
         <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>141</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -6424,7 +6424,7 @@
         <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -6432,7 +6432,7 @@
         <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -6440,15 +6440,15 @@
         <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
@@ -6456,7 +6456,7 @@
         <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>151</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -6464,7 +6464,7 @@
         <v>152</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -6472,7 +6472,7 @@
         <v>154</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -6480,7 +6480,7 @@
         <v>156</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -6488,7 +6488,7 @@
         <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>159</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -6496,7 +6496,7 @@
         <v>160</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -6504,15 +6504,15 @@
         <v>162</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -6520,7 +6520,7 @@
         <v>166</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -6528,7 +6528,7 @@
         <v>168</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>169</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -6536,7 +6536,7 @@
         <v>170</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>585</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -6544,7 +6544,7 @@
         <v>172</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>587</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -6552,7 +6552,7 @@
         <v>174</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>729</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -6560,7 +6560,7 @@
         <v>176</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -6568,7 +6568,7 @@
         <v>178</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>179</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -6576,7 +6576,7 @@
         <v>180</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>181</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -6584,15 +6584,15 @@
         <v>182</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -6600,7 +6600,7 @@
         <v>186</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -6608,7 +6608,7 @@
         <v>188</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>189</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -6616,7 +6616,7 @@
         <v>190</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>191</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -6624,7 +6624,7 @@
         <v>192</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>193</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -6632,7 +6632,7 @@
         <v>194</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -6640,7 +6640,7 @@
         <v>196</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>197</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -6648,7 +6648,7 @@
         <v>198</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>199</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -6656,7 +6656,7 @@
         <v>200</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -6664,7 +6664,7 @@
         <v>202</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>203</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -6672,7 +6672,7 @@
         <v>204</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>205</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -6680,15 +6680,15 @@
         <v>206</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>209</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -6696,7 +6696,7 @@
         <v>210</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>211</v>
+        <v>683</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -6704,7 +6704,7 @@
         <v>212</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>213</v>
+        <v>681</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -6712,7 +6712,7 @@
         <v>214</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>215</v>
+        <v>685</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -6720,15 +6720,15 @@
         <v>216</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>219</v>
+        <v>763</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -6736,7 +6736,7 @@
         <v>220</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -6744,7 +6744,7 @@
         <v>222</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>223</v>
+        <v>655</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -6752,7 +6752,7 @@
         <v>224</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>225</v>
+        <v>661</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -6760,7 +6760,7 @@
         <v>226</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>227</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -6768,7 +6768,7 @@
         <v>228</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>229</v>
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -6776,7 +6776,7 @@
         <v>230</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>231</v>
+        <v>745</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -6784,7 +6784,7 @@
         <v>232</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>233</v>
+        <v>631</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -6792,7 +6792,7 @@
         <v>234</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>235</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -6800,7 +6800,7 @@
         <v>236</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>237</v>
+        <v>599</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -6808,7 +6808,7 @@
         <v>238</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>239</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -6816,7 +6816,7 @@
         <v>240</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -6824,7 +6824,7 @@
         <v>242</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>243</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -6832,7 +6832,7 @@
         <v>244</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>245</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -6840,7 +6840,7 @@
         <v>246</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>247</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -6848,7 +6848,7 @@
         <v>248</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>249</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -6856,7 +6856,7 @@
         <v>250</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>251</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -6864,7 +6864,7 @@
         <v>252</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>253</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -6872,7 +6872,7 @@
         <v>254</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>255</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -6880,7 +6880,7 @@
         <v>256</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>257</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -6888,7 +6888,7 @@
         <v>258</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>259</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -6896,7 +6896,7 @@
         <v>260</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>261</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -6904,7 +6904,7 @@
         <v>262</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>263</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -6912,7 +6912,7 @@
         <v>264</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>265</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -6920,7 +6920,7 @@
         <v>266</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>267</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -6928,7 +6928,7 @@
         <v>268</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>269</v>
+        <v>759</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -6936,7 +6936,7 @@
         <v>270</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>271</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -6944,7 +6944,7 @@
         <v>272</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>273</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -6952,7 +6952,7 @@
         <v>274</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>275</v>
+        <v>715</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -6960,7 +6960,7 @@
         <v>276</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>277</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -6968,7 +6968,7 @@
         <v>278</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>279</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -6976,7 +6976,7 @@
         <v>280</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>281</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -6984,7 +6984,7 @@
         <v>282</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>283</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -6992,7 +6992,7 @@
         <v>284</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>285</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -7000,7 +7000,7 @@
         <v>286</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>287</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -7008,7 +7008,7 @@
         <v>288</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -7016,7 +7016,7 @@
         <v>290</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -7024,7 +7024,7 @@
         <v>292</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>293</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -7032,7 +7032,7 @@
         <v>294</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>295</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -7040,7 +7040,7 @@
         <v>296</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>297</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -7048,7 +7048,7 @@
         <v>298</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>299</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -7056,7 +7056,7 @@
         <v>300</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>301</v>
+        <v>439</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -7064,7 +7064,7 @@
         <v>302</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -7072,7 +7072,7 @@
         <v>304</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>305</v>
+        <v>191</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -7080,7 +7080,7 @@
         <v>306</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>307</v>
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -7088,7 +7088,7 @@
         <v>308</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>309</v>
+        <v>193</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -7096,7 +7096,7 @@
         <v>310</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>311</v>
+        <v>441</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -7104,7 +7104,7 @@
         <v>312</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -7112,7 +7112,7 @@
         <v>314</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>315</v>
+        <v>659</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -7120,7 +7120,7 @@
         <v>316</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>317</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -7128,15 +7128,15 @@
         <v>318</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>321</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -7144,7 +7144,7 @@
         <v>322</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>323</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -7152,7 +7152,7 @@
         <v>324</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -7160,7 +7160,7 @@
         <v>326</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>327</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -7168,7 +7168,7 @@
         <v>328</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -7176,7 +7176,7 @@
         <v>330</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>331</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -7184,7 +7184,7 @@
         <v>332</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>333</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -7192,7 +7192,7 @@
         <v>334</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>335</v>
+        <v>437</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -7200,15 +7200,15 @@
         <v>336</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>339</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -7216,7 +7216,7 @@
         <v>340</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>341</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -7224,7 +7224,7 @@
         <v>342</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>343</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -7232,7 +7232,7 @@
         <v>344</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>345</v>
+        <v>665</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -7240,15 +7240,15 @@
         <v>346</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>348</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>349</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -7256,7 +7256,7 @@
         <v>350</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>351</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -7264,7 +7264,7 @@
         <v>352</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>353</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -7272,7 +7272,7 @@
         <v>354</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>355</v>
+        <v>213</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -7280,7 +7280,7 @@
         <v>356</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>357</v>
+        <v>251</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -7288,7 +7288,7 @@
         <v>358</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>359</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -7296,7 +7296,7 @@
         <v>360</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>361</v>
+        <v>651</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -7304,7 +7304,7 @@
         <v>362</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -7312,7 +7312,7 @@
         <v>364</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>365</v>
+        <v>449</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -7320,7 +7320,7 @@
         <v>366</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>367</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -7328,7 +7328,7 @@
         <v>368</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -7336,7 +7336,7 @@
         <v>370</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>371</v>
+        <v>735</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -7344,7 +7344,7 @@
         <v>372</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>373</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -7352,7 +7352,7 @@
         <v>374</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>375</v>
+        <v>731</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -7360,7 +7360,7 @@
         <v>376</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>377</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -7368,7 +7368,7 @@
         <v>378</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -7376,7 +7376,7 @@
         <v>380</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>381</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -7384,7 +7384,7 @@
         <v>382</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>383</v>
+        <v>667</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -7392,7 +7392,7 @@
         <v>384</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>385</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -7400,7 +7400,7 @@
         <v>386</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>387</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -7408,7 +7408,7 @@
         <v>388</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>389</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -7416,7 +7416,7 @@
         <v>390</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>391</v>
+        <v>657</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -7424,7 +7424,7 @@
         <v>392</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>393</v>
+        <v>663</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -7432,7 +7432,7 @@
         <v>394</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>395</v>
+        <v>751</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -7440,7 +7440,7 @@
         <v>396</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>397</v>
+        <v>749</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -7448,15 +7448,15 @@
         <v>398</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>401</v>
+        <v>765</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -7464,15 +7464,15 @@
         <v>402</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>405</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -7480,7 +7480,7 @@
         <v>406</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>407</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -7488,7 +7488,7 @@
         <v>408</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>409</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -7496,7 +7496,7 @@
         <v>410</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>411</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -7504,7 +7504,7 @@
         <v>412</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>413</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
@@ -7528,7 +7528,7 @@
         <v>418</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>419</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -7536,7 +7536,7 @@
         <v>420</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>421</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -7544,7 +7544,7 @@
         <v>422</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>423</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -7552,7 +7552,7 @@
         <v>424</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>425</v>
+        <v>259</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -7560,7 +7560,7 @@
         <v>426</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>427</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -7568,7 +7568,7 @@
         <v>428</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>429</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -7576,7 +7576,7 @@
         <v>430</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>431</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -7584,7 +7584,7 @@
         <v>432</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>433</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -7592,7 +7592,7 @@
         <v>434</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>435</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -7600,7 +7600,7 @@
         <v>436</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>437</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -7608,7 +7608,7 @@
         <v>438</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>439</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -7616,7 +7616,7 @@
         <v>440</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>441</v>
+        <v>811</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -7624,7 +7624,7 @@
         <v>442</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>443</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -7632,7 +7632,7 @@
         <v>444</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>445</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -7640,7 +7640,7 @@
         <v>446</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>447</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -7648,7 +7648,7 @@
         <v>448</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>449</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -7656,7 +7656,7 @@
         <v>450</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>451</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -7664,7 +7664,7 @@
         <v>452</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>453</v>
+        <v>91</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -7672,7 +7672,7 @@
         <v>454</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>455</v>
+        <v>675</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -7680,7 +7680,7 @@
         <v>456</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>457</v>
+        <v>673</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -7688,7 +7688,7 @@
         <v>458</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>459</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -7696,7 +7696,7 @@
         <v>460</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>461</v>
+        <v>649</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
@@ -7704,15 +7704,15 @@
         <v>462</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>465</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -7720,7 +7720,7 @@
         <v>466</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>467</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -7728,7 +7728,7 @@
         <v>468</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>469</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -7736,7 +7736,7 @@
         <v>470</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>471</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -7744,7 +7744,7 @@
         <v>472</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>473</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -7752,7 +7752,7 @@
         <v>474</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>475</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -7760,7 +7760,7 @@
         <v>476</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>477</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -7768,7 +7768,7 @@
         <v>478</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>479</v>
+        <v>149</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -7776,7 +7776,7 @@
         <v>480</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>481</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -7784,7 +7784,7 @@
         <v>482</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>483</v>
+        <v>115</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -7792,7 +7792,7 @@
         <v>484</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>485</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -7800,15 +7800,15 @@
         <v>486</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>488</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>489</v>
+        <v>171</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -7816,7 +7816,7 @@
         <v>490</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>491</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -7824,7 +7824,7 @@
         <v>492</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>493</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -7832,7 +7832,7 @@
         <v>494</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>495</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -7840,7 +7840,7 @@
         <v>496</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>497</v>
+        <v>355</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -7848,7 +7848,7 @@
         <v>498</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>499</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -7856,7 +7856,7 @@
         <v>500</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>501</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
@@ -7864,7 +7864,7 @@
         <v>502</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>503</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -7872,15 +7872,15 @@
         <v>504</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>507</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -7888,7 +7888,7 @@
         <v>508</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>509</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -7896,7 +7896,7 @@
         <v>510</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>511</v>
+        <v>721</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -7904,15 +7904,15 @@
         <v>512</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>515</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -7920,7 +7920,7 @@
         <v>516</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>517</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -7928,7 +7928,7 @@
         <v>518</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>519</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -7936,7 +7936,7 @@
         <v>520</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>521</v>
+        <v>897</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -7944,7 +7944,7 @@
         <v>522</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>523</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -7952,7 +7952,7 @@
         <v>524</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>525</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -7960,15 +7960,15 @@
         <v>526</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>529</v>
+        <v>711</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -7976,7 +7976,7 @@
         <v>530</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>531</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -7984,7 +7984,7 @@
         <v>532</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>533</v>
+        <v>713</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -7992,7 +7992,7 @@
         <v>534</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>535</v>
+        <v>155</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -8000,7 +8000,7 @@
         <v>536</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>537</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -8008,7 +8008,7 @@
         <v>538</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>539</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -8016,7 +8016,7 @@
         <v>540</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -8024,7 +8024,7 @@
         <v>542</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>543</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -8032,15 +8032,15 @@
         <v>544</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>547</v>
+        <v>163</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -8048,15 +8048,15 @@
         <v>548</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>551</v>
+        <v>733</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -8064,7 +8064,7 @@
         <v>552</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>553</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -8072,7 +8072,7 @@
         <v>554</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>555</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -8080,7 +8080,7 @@
         <v>556</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>557</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -8088,7 +8088,7 @@
         <v>558</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>559</v>
+        <v>41</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -8096,7 +8096,7 @@
         <v>560</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>561</v>
+        <v>33</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -8104,23 +8104,23 @@
         <v>562</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>567</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -8128,7 +8128,7 @@
         <v>568</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>569</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -8136,7 +8136,7 @@
         <v>570</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>571</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -8144,7 +8144,7 @@
         <v>572</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>573</v>
+        <v>39</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -8152,7 +8152,7 @@
         <v>574</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>575</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -8160,15 +8160,15 @@
         <v>576</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>579</v>
+        <v>43</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -8176,7 +8176,7 @@
         <v>580</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>581</v>
+        <v>45</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -8184,7 +8184,7 @@
         <v>582</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>583</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -8192,7 +8192,7 @@
         <v>584</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>585</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -8200,7 +8200,7 @@
         <v>586</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>587</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -8208,7 +8208,7 @@
         <v>588</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -8216,7 +8216,7 @@
         <v>590</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>591</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -8224,7 +8224,7 @@
         <v>592</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>593</v>
+        <v>27</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -8232,7 +8232,7 @@
         <v>594</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>595</v>
+        <v>37</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -8240,7 +8240,7 @@
         <v>596</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>597</v>
+        <v>23</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -8248,7 +8248,7 @@
         <v>598</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>599</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -8256,15 +8256,15 @@
         <v>600</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>602</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>603</v>
+        <v>761</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -8272,7 +8272,7 @@
         <v>604</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>605</v>
+        <v>859</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -8280,7 +8280,7 @@
         <v>606</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>607</v>
+        <v>809</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -8288,7 +8288,7 @@
         <v>608</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>609</v>
+        <v>891</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -8296,7 +8296,7 @@
         <v>610</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>611</v>
+        <v>789</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -8304,7 +8304,7 @@
         <v>612</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>613</v>
+        <v>867</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -8312,7 +8312,7 @@
         <v>614</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>615</v>
+        <v>843</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -8320,7 +8320,7 @@
         <v>616</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>617</v>
+        <v>863</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -8328,7 +8328,7 @@
         <v>618</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>619</v>
+        <v>865</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -8336,7 +8336,7 @@
         <v>620</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>621</v>
+        <v>801</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -8344,7 +8344,7 @@
         <v>622</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>623</v>
+        <v>823</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -8352,7 +8352,7 @@
         <v>624</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>625</v>
+        <v>817</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -8360,7 +8360,7 @@
         <v>626</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>627</v>
+        <v>845</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -8368,7 +8368,7 @@
         <v>628</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>629</v>
+        <v>883</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -8376,7 +8376,7 @@
         <v>630</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>631</v>
+        <v>825</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -8384,7 +8384,7 @@
         <v>632</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>633</v>
+        <v>795</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -8392,7 +8392,7 @@
         <v>634</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>635</v>
+        <v>827</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -8400,7 +8400,7 @@
         <v>636</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>637</v>
+        <v>853</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -8408,7 +8408,7 @@
         <v>638</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>639</v>
+        <v>793</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -8416,7 +8416,7 @@
         <v>640</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>641</v>
+        <v>881</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -8424,7 +8424,7 @@
         <v>642</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>643</v>
+        <v>821</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -8432,7 +8432,7 @@
         <v>644</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>645</v>
+        <v>849</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -8440,7 +8440,7 @@
         <v>646</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>647</v>
+        <v>875</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -8448,7 +8448,7 @@
         <v>648</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>649</v>
+        <v>807</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -8456,7 +8456,7 @@
         <v>650</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>651</v>
+        <v>879</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -8464,7 +8464,7 @@
         <v>652</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>653</v>
+        <v>815</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -8472,7 +8472,7 @@
         <v>654</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>655</v>
+        <v>839</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -8480,7 +8480,7 @@
         <v>656</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>657</v>
+        <v>857</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -8488,7 +8488,7 @@
         <v>658</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>659</v>
+        <v>797</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -8496,7 +8496,7 @@
         <v>660</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>661</v>
+        <v>791</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -8504,7 +8504,7 @@
         <v>662</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>663</v>
+        <v>819</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -8512,7 +8512,7 @@
         <v>664</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>665</v>
+        <v>831</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -8520,7 +8520,7 @@
         <v>666</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>667</v>
+        <v>799</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -8528,7 +8528,7 @@
         <v>668</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>669</v>
+        <v>889</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -8536,7 +8536,7 @@
         <v>670</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>671</v>
+        <v>869</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -8544,7 +8544,7 @@
         <v>672</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>673</v>
+        <v>861</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -8552,7 +8552,7 @@
         <v>674</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>675</v>
+        <v>833</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -8560,7 +8560,7 @@
         <v>676</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>677</v>
+        <v>829</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -8568,7 +8568,7 @@
         <v>678</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>679</v>
+        <v>873</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -8576,7 +8576,7 @@
         <v>680</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>681</v>
+        <v>805</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -8584,7 +8584,7 @@
         <v>682</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>683</v>
+        <v>787</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -8592,7 +8592,7 @@
         <v>684</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>685</v>
+        <v>837</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -8600,15 +8600,15 @@
         <v>686</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>688</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>689</v>
+        <v>855</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -8616,7 +8616,7 @@
         <v>690</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>691</v>
+        <v>813</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -8624,7 +8624,7 @@
         <v>692</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>693</v>
+        <v>803</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -8632,7 +8632,7 @@
         <v>694</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>695</v>
+        <v>835</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -8640,7 +8640,7 @@
         <v>696</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>697</v>
+        <v>887</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -8648,7 +8648,7 @@
         <v>698</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>699</v>
+        <v>851</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -8656,7 +8656,7 @@
         <v>700</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>701</v>
+        <v>871</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -8664,7 +8664,7 @@
         <v>702</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>703</v>
+        <v>877</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -8672,7 +8672,7 @@
         <v>704</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>705</v>
+        <v>841</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -8680,7 +8680,7 @@
         <v>706</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>707</v>
+        <v>885</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -8688,7 +8688,7 @@
         <v>708</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>709</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -8696,7 +8696,7 @@
         <v>710</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>711</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -8704,7 +8704,7 @@
         <v>712</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>713</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -8712,7 +8712,7 @@
         <v>714</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>715</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -8720,7 +8720,7 @@
         <v>716</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>717</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -8728,7 +8728,7 @@
         <v>718</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>719</v>
+        <v>323</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -8736,7 +8736,7 @@
         <v>720</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>721</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -8744,7 +8744,7 @@
         <v>722</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>723</v>
+        <v>367</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -8752,7 +8752,7 @@
         <v>724</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -8760,7 +8760,7 @@
         <v>726</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>727</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -8768,7 +8768,7 @@
         <v>728</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>729</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -8776,7 +8776,7 @@
         <v>730</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>731</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -8784,7 +8784,7 @@
         <v>732</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>733</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -8792,7 +8792,7 @@
         <v>734</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>735</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -8800,31 +8800,31 @@
         <v>736</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>740</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>742</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>743</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -8832,7 +8832,7 @@
         <v>744</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>745</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -8840,7 +8840,7 @@
         <v>746</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>747</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -8848,7 +8848,7 @@
         <v>748</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>749</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -8856,7 +8856,7 @@
         <v>750</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>751</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -8864,7 +8864,7 @@
         <v>752</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>753</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -8872,15 +8872,15 @@
         <v>754</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>756</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>757</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -8888,31 +8888,31 @@
         <v>758</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>760</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>762</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>764</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
@@ -8928,7 +8928,7 @@
         <v>768</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -8936,7 +8936,7 @@
         <v>770</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
@@ -8952,7 +8952,7 @@
         <v>774</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -8960,7 +8960,7 @@
         <v>776</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -8968,7 +8968,7 @@
         <v>778</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -8976,7 +8976,7 @@
         <v>780</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>781</v>
+        <v>613</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -8984,7 +8984,7 @@
         <v>782</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>783</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -8992,7 +8992,7 @@
         <v>784</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>785</v>
+        <v>727</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -9000,7 +9000,7 @@
         <v>786</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>787</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -9008,7 +9008,7 @@
         <v>788</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>789</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -9016,7 +9016,7 @@
         <v>790</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>791</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -9024,7 +9024,7 @@
         <v>792</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>793</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -9032,7 +9032,7 @@
         <v>794</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>795</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -9040,7 +9040,7 @@
         <v>796</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>797</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -9048,7 +9048,7 @@
         <v>798</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>799</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -9056,7 +9056,7 @@
         <v>800</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>801</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -9064,7 +9064,7 @@
         <v>802</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>803</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -9072,7 +9072,7 @@
         <v>804</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>805</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -9080,7 +9080,7 @@
         <v>806</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>807</v>
+        <v>65</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -9088,7 +9088,7 @@
         <v>808</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>809</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -9096,7 +9096,7 @@
         <v>810</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>811</v>
+        <v>647</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -9104,7 +9104,7 @@
         <v>812</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>813</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -9112,7 +9112,7 @@
         <v>814</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>815</v>
+        <v>639</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -9120,7 +9120,7 @@
         <v>816</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>817</v>
+        <v>637</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -9128,15 +9128,15 @@
         <v>818</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>820</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>821</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -9144,7 +9144,7 @@
         <v>822</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>823</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -9152,7 +9152,7 @@
         <v>824</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>825</v>
+        <v>635</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -9160,7 +9160,7 @@
         <v>826</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>827</v>
+        <v>633</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -9168,7 +9168,7 @@
         <v>828</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>829</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -9176,7 +9176,7 @@
         <v>830</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>831</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -9184,7 +9184,7 @@
         <v>832</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>833</v>
+        <v>645</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -9192,7 +9192,7 @@
         <v>834</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>835</v>
+        <v>641</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -9200,7 +9200,7 @@
         <v>836</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>837</v>
+        <v>643</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -9208,7 +9208,7 @@
         <v>838</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>839</v>
+        <v>319</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -9216,7 +9216,7 @@
         <v>840</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>841</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -9224,7 +9224,7 @@
         <v>842</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>843</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -9232,7 +9232,7 @@
         <v>844</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>845</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -9240,7 +9240,7 @@
         <v>846</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>847</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -9248,7 +9248,7 @@
         <v>848</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>849</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -9256,7 +9256,7 @@
         <v>850</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>851</v>
+        <v>709</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -9264,7 +9264,7 @@
         <v>852</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>853</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -9272,7 +9272,7 @@
         <v>854</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>855</v>
+        <v>129</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -9280,7 +9280,7 @@
         <v>856</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>857</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -9288,15 +9288,15 @@
         <v>858</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>860</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>861</v>
+        <v>689</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -9304,7 +9304,7 @@
         <v>862</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>863</v>
+        <v>75</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -9312,7 +9312,7 @@
         <v>864</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>865</v>
+        <v>73</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -9320,7 +9320,7 @@
         <v>866</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>867</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -9328,7 +9328,7 @@
         <v>868</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>869</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -9336,7 +9336,7 @@
         <v>870</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>871</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -9344,7 +9344,7 @@
         <v>872</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>873</v>
+        <v>83</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -9352,7 +9352,7 @@
         <v>874</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>875</v>
+        <v>85</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -9360,7 +9360,7 @@
         <v>876</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>877</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -9368,7 +9368,7 @@
         <v>878</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>879</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -9376,7 +9376,7 @@
         <v>880</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>881</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -9384,7 +9384,7 @@
         <v>882</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>883</v>
+        <v>419</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -9392,7 +9392,7 @@
         <v>884</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>885</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -9400,7 +9400,7 @@
         <v>886</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>887</v>
+        <v>469</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -9408,7 +9408,7 @@
         <v>888</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>889</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -9416,7 +9416,7 @@
         <v>890</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>891</v>
+        <v>177</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -9424,15 +9424,15 @@
         <v>892</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>894</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -9440,7 +9440,7 @@
         <v>896</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>897</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -9448,7 +9448,7 @@
         <v>898</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>899</v>
+        <v>975</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -9456,15 +9456,15 @@
         <v>900</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>902</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>903</v>
+        <v>989</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -9472,7 +9472,7 @@
         <v>904</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -9480,7 +9480,7 @@
         <v>906</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>907</v>
+        <v>965</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -9488,7 +9488,7 @@
         <v>908</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>909</v>
+        <v>953</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -9496,7 +9496,7 @@
         <v>910</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>911</v>
+        <v>963</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -9504,23 +9504,23 @@
         <v>912</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>914</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>916</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>917</v>
+        <v>941</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -9528,7 +9528,7 @@
         <v>918</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -9536,15 +9536,15 @@
         <v>920</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>922</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -9552,7 +9552,7 @@
         <v>924</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
@@ -9560,15 +9560,15 @@
         <v>926</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>928</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>929</v>
+        <v>997</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -9576,7 +9576,7 @@
         <v>930</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -9584,7 +9584,7 @@
         <v>932</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>933</v>
+        <v>969</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -9592,15 +9592,15 @@
         <v>934</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>936</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -9616,7 +9616,7 @@
         <v>940</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -9624,7 +9624,7 @@
         <v>942</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -9632,15 +9632,15 @@
         <v>944</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>946</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>947</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -9648,7 +9648,7 @@
         <v>948</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -9656,7 +9656,7 @@
         <v>950</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -9664,7 +9664,7 @@
         <v>952</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>953</v>
+        <v>987</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -9672,15 +9672,15 @@
         <v>954</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>956</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>957</v>
+        <v>927</v>
       </c>
     </row>
     <row r="480" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
@@ -9688,15 +9688,15 @@
         <v>958</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>960</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -9704,7 +9704,7 @@
         <v>962</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>963</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -9712,7 +9712,7 @@
         <v>964</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -9720,7 +9720,7 @@
         <v>966</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -9728,7 +9728,7 @@
         <v>968</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>969</v>
+        <v>985</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -9736,7 +9736,7 @@
         <v>970</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -9744,7 +9744,7 @@
         <v>972</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -9752,15 +9752,15 @@
         <v>974</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>976</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -9768,7 +9768,7 @@
         <v>978</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>979</v>
+        <v>925</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -9776,7 +9776,7 @@
         <v>980</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>981</v>
+        <v>929</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -9784,7 +9784,7 @@
         <v>982</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>983</v>
+        <v>955</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -9792,7 +9792,7 @@
         <v>984</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>985</v>
+        <v>915</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -9800,15 +9800,15 @@
         <v>986</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>988</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>989</v>
+        <v>931</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -9816,7 +9816,7 @@
         <v>990</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -9824,7 +9824,7 @@
         <v>992</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>993</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -9832,15 +9832,15 @@
         <v>994</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>996</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>997</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -9848,7 +9848,7 @@
         <v>998</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>999</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -9856,7 +9856,7 @@
         <v>1000</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1001</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -9864,7 +9864,7 @@
         <v>1002</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1003</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -9872,7 +9872,7 @@
         <v>1004</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1005</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -9880,7 +9880,7 @@
         <v>1006</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1007</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -9888,7 +9888,7 @@
         <v>1008</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1009</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -9896,7 +9896,7 @@
         <v>1010</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1011</v>
+        <v>347</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -9904,7 +9904,7 @@
         <v>1012</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1013</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -9912,7 +9912,7 @@
         <v>1014</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1015</v>
+        <v>107</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -9920,7 +9920,7 @@
         <v>1016</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1017</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -9928,7 +9928,7 @@
         <v>1018</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1019</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -9936,31 +9936,31 @@
         <v>1020</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>1022</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>1024</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1027</v>
+        <v>135</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -9968,7 +9968,7 @@
         <v>1028</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1029</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -9976,7 +9976,7 @@
         <v>1030</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1031</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -9984,7 +9984,7 @@
         <v>1032</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1033</v>
+        <v>133</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -9992,7 +9992,7 @@
         <v>1034</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1035</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -10000,7 +10000,7 @@
         <v>1036</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1037</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -10008,7 +10008,7 @@
         <v>1038</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1039</v>
+        <v>285</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
@@ -10016,7 +10016,7 @@
         <v>1040</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1041</v>
+        <v>287</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -10024,7 +10024,7 @@
         <v>1042</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1043</v>
+        <v>13</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -10032,7 +10032,7 @@
         <v>1044</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1045</v>
+        <v>257</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -10040,7 +10040,7 @@
         <v>1046</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1047</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
@@ -10048,7 +10048,7 @@
         <v>1048</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>1049</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -10056,7 +10056,7 @@
         <v>1050</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1051</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -10064,7 +10064,7 @@
         <v>1052</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1053</v>
+        <v>221</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -10072,7 +10072,7 @@
         <v>1054</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1055</v>
+        <v>101</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -10080,7 +10080,7 @@
         <v>1056</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1057</v>
+        <v>741</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -10088,7 +10088,7 @@
         <v>1058</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1059</v>
+        <v>739</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -10096,7 +10096,7 @@
         <v>1060</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1061</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -10104,7 +10104,7 @@
         <v>1062</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1063</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -10112,7 +10112,7 @@
         <v>1064</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1065</v>
+        <v>305</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
@@ -10120,7 +10120,7 @@
         <v>1066</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -10128,7 +10128,7 @@
         <v>1068</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1069</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -10136,7 +10136,7 @@
         <v>1070</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1071</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -10144,7 +10144,7 @@
         <v>1072</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1073</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -10152,7 +10152,7 @@
         <v>1074</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1075</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -10160,7 +10160,7 @@
         <v>1076</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1077</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -10168,7 +10168,7 @@
         <v>1078</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1079</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
@@ -10176,7 +10176,7 @@
         <v>1080</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1081</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
@@ -10184,15 +10184,15 @@
         <v>1082</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1085</v>
+        <v>463</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -10200,7 +10200,7 @@
         <v>1086</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1087</v>
+        <v>583</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -10208,7 +10208,7 @@
         <v>1088</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1089</v>
+        <v>521</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -10216,7 +10216,7 @@
         <v>1090</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1091</v>
+        <v>381</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
@@ -10224,7 +10224,7 @@
         <v>1092</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1093</v>
+        <v>239</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -10232,7 +10232,7 @@
         <v>1094</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1095</v>
+        <v>433</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
@@ -10240,7 +10240,7 @@
         <v>1096</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1097</v>
+        <v>397</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -10248,7 +10248,7 @@
         <v>1098</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1099</v>
+        <v>539</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -10256,7 +10256,7 @@
         <v>1100</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1101</v>
+        <v>611</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -10264,7 +10264,7 @@
         <v>1102</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1103</v>
+        <v>329</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
@@ -10272,7 +10272,7 @@
         <v>1104</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1105</v>
+        <v>331</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
@@ -10280,7 +10280,7 @@
         <v>1106</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1107</v>
+        <v>307</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -10288,7 +10288,7 @@
         <v>1108</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1109</v>
+        <v>537</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -10296,7 +10296,7 @@
         <v>1110</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1111</v>
+        <v>395</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -10304,7 +10304,7 @@
         <v>1112</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1113</v>
+        <v>231</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -10312,7 +10312,7 @@
         <v>1114</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1115</v>
+        <v>249</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
@@ -10320,7 +10320,7 @@
         <v>1116</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1117</v>
+        <v>413</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
@@ -10328,7 +10328,7 @@
         <v>1118</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1119</v>
+        <v>531</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -10336,15 +10336,15 @@
         <v>1120</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1123</v>
+        <v>339</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
@@ -10352,7 +10352,7 @@
         <v>1124</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1125</v>
+        <v>525</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
@@ -10360,7 +10360,7 @@
         <v>1126</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1127</v>
+        <v>475</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
@@ -10368,7 +10368,7 @@
         <v>1128</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1129</v>
+        <v>403</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
@@ -10376,7 +10376,7 @@
         <v>1130</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1131</v>
+        <v>617</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
@@ -10384,7 +10384,7 @@
         <v>1132</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1133</v>
+        <v>229</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -10392,7 +10392,7 @@
         <v>1134</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1135</v>
+        <v>629</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
@@ -10400,7 +10400,7 @@
         <v>1136</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1137</v>
+        <v>377</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
@@ -10408,7 +10408,7 @@
         <v>1138</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1139</v>
+        <v>399</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
@@ -10416,7 +10416,7 @@
         <v>1140</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
@@ -10424,7 +10424,7 @@
         <v>1142</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1143</v>
+        <v>597</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
@@ -10432,15 +10432,15 @@
         <v>1144</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1147</v>
+        <v>489</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -10448,7 +10448,7 @@
         <v>1148</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1149</v>
+        <v>361</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
@@ -10456,7 +10456,7 @@
         <v>1150</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1151</v>
+        <v>269</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
@@ -10464,7 +10464,7 @@
         <v>1152</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1153</v>
+        <v>459</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -10472,7 +10472,7 @@
         <v>1154</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1155</v>
+        <v>383</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -10480,7 +10480,7 @@
         <v>1156</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1157</v>
+        <v>515</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
@@ -10488,7 +10488,7 @@
         <v>1158</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1159</v>
+        <v>581</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
@@ -10496,7 +10496,7 @@
         <v>1160</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1161</v>
+        <v>527</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
@@ -10504,7 +10504,7 @@
         <v>1162</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1163</v>
+        <v>493</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
@@ -10512,7 +10512,7 @@
         <v>1164</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1165</v>
+        <v>513</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
@@ -10520,7 +10520,7 @@
         <v>1166</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1167</v>
+        <v>351</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -10528,7 +10528,7 @@
         <v>1168</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1169</v>
+        <v>407</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
@@ -10536,7 +10536,7 @@
         <v>1170</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1171</v>
+        <v>263</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
@@ -10544,7 +10544,7 @@
         <v>1172</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1173</v>
+        <v>357</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
@@ -10552,7 +10552,7 @@
         <v>1174</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1175</v>
+        <v>411</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
@@ -10560,15 +10560,15 @@
         <v>1176</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>1178</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
@@ -10576,7 +10576,7 @@
         <v>1180</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1181</v>
+        <v>341</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
@@ -10584,7 +10584,7 @@
         <v>1182</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1183</v>
+        <v>327</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
@@ -10592,7 +10592,7 @@
         <v>1184</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1185</v>
+        <v>271</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
@@ -10600,7 +10600,7 @@
         <v>1186</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1187</v>
+        <v>277</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
@@ -10608,7 +10608,7 @@
         <v>1188</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1189</v>
+        <v>405</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
@@ -10616,7 +10616,7 @@
         <v>1190</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1191</v>
+        <v>379</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
@@ -10624,7 +10624,7 @@
         <v>1192</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1193</v>
+        <v>563</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
@@ -10632,7 +10632,7 @@
         <v>1194</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1195</v>
+        <v>333</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
@@ -10640,7 +10640,7 @@
         <v>1196</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1197</v>
+        <v>501</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
@@ -10648,7 +10648,7 @@
         <v>1198</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
@@ -10656,23 +10656,23 @@
         <v>1200</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>1202</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>1204</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1205</v>
+        <v>503</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
@@ -10680,7 +10680,7 @@
         <v>1206</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1207</v>
+        <v>555</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
@@ -10688,7 +10688,7 @@
         <v>1208</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1209</v>
+        <v>523</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
@@ -10696,7 +10696,7 @@
         <v>1210</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1211</v>
+        <v>401</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
@@ -10704,7 +10704,7 @@
         <v>1212</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1213</v>
+        <v>429</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
@@ -10712,23 +10712,23 @@
         <v>1214</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>1216</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>1218</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1219</v>
+        <v>579</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
@@ -10736,7 +10736,7 @@
         <v>1220</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1221</v>
+        <v>385</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
@@ -10744,7 +10744,7 @@
         <v>1222</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1223</v>
+        <v>389</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
@@ -10752,7 +10752,7 @@
         <v>1224</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1225</v>
+        <v>393</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
@@ -10760,7 +10760,7 @@
         <v>1226</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1227</v>
+        <v>391</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
@@ -10768,7 +10768,7 @@
         <v>1228</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1229</v>
+        <v>173</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
@@ -10776,7 +10776,7 @@
         <v>1230</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1231</v>
+        <v>499</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
@@ -10784,23 +10784,23 @@
         <v>1232</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>1234</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>1236</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1237</v>
+        <v>547</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
@@ -10808,7 +10808,7 @@
         <v>1238</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1239</v>
+        <v>293</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
@@ -10816,7 +10816,7 @@
         <v>1240</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1241</v>
+        <v>495</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
@@ -10824,7 +10824,7 @@
         <v>1242</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1243</v>
+        <v>447</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
@@ -10832,7 +10832,7 @@
         <v>1244</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1245</v>
+        <v>607</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
@@ -10840,7 +10840,7 @@
         <v>1246</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1247</v>
+        <v>605</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
@@ -10848,7 +10848,7 @@
         <v>1248</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1249</v>
+        <v>187</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
@@ -10856,7 +10856,7 @@
         <v>1250</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1251</v>
+        <v>541</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
@@ -10864,7 +10864,7 @@
         <v>1252</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1253</v>
+        <v>577</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
@@ -10872,7 +10872,7 @@
         <v>1254</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1255</v>
+        <v>349</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
@@ -10880,7 +10880,7 @@
         <v>1256</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1257</v>
+        <v>591</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
@@ -10888,7 +10888,7 @@
         <v>1258</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1259</v>
+        <v>545</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
@@ -10896,7 +10896,7 @@
         <v>1260</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1261</v>
+        <v>477</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
@@ -10904,7 +10904,7 @@
         <v>1262</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
@@ -10912,7 +10912,7 @@
         <v>1264</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1265</v>
+        <v>359</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
@@ -10920,7 +10920,7 @@
         <v>1266</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1267</v>
+        <v>483</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -10928,7 +10928,7 @@
         <v>1268</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1269</v>
+        <v>609</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
@@ -10936,15 +10936,15 @@
         <v>1270</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1273</v>
+        <v>565</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
@@ -10952,7 +10952,7 @@
         <v>1274</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1275</v>
+        <v>571</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
@@ -10960,7 +10960,7 @@
         <v>1276</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1277</v>
+        <v>561</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
@@ -10968,23 +10968,23 @@
         <v>1278</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>1280</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>1282</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1283</v>
+        <v>551</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
@@ -10992,7 +10992,7 @@
         <v>1284</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1285</v>
+        <v>225</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
@@ -11000,7 +11000,7 @@
         <v>1286</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1287</v>
+        <v>625</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
@@ -11008,7 +11008,7 @@
         <v>1288</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
@@ -11016,7 +11016,7 @@
         <v>1290</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1291</v>
+        <v>457</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
@@ -11024,7 +11024,7 @@
         <v>1292</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1293</v>
+        <v>485</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
@@ -11032,7 +11032,7 @@
         <v>1294</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1295</v>
+        <v>593</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
@@ -11040,7 +11040,7 @@
         <v>1296</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1297</v>
+        <v>169</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
@@ -11048,7 +11048,7 @@
         <v>1298</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1299</v>
+        <v>267</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
@@ -11056,7 +11056,7 @@
         <v>1300</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1301</v>
+        <v>595</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
@@ -11064,7 +11064,7 @@
         <v>1302</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1303</v>
+        <v>549</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
@@ -11072,7 +11072,7 @@
         <v>1304</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>1305</v>
+        <v>533</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
@@ -11080,7 +11080,7 @@
         <v>1306</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1307</v>
+        <v>409</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -11088,7 +11088,7 @@
         <v>1308</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1309</v>
+        <v>387</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
@@ -11096,7 +11096,7 @@
         <v>1310</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1311</v>
+        <v>619</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
@@ -11104,7 +11104,7 @@
         <v>1312</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1313</v>
+        <v>487</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
@@ -11112,7 +11112,7 @@
         <v>1314</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1315</v>
+        <v>519</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
@@ -11120,7 +11120,7 @@
         <v>1316</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1317</v>
+        <v>509</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
@@ -11128,7 +11128,7 @@
         <v>1318</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1319</v>
+        <v>345</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
@@ -11136,7 +11136,7 @@
         <v>1320</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1321</v>
+        <v>175</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
@@ -11144,7 +11144,7 @@
         <v>1322</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1323</v>
+        <v>575</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -11152,7 +11152,7 @@
         <v>1324</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>1325</v>
+        <v>365</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -11160,7 +11160,7 @@
         <v>1326</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>1327</v>
+        <v>223</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
@@ -11168,7 +11168,7 @@
         <v>1328</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1329</v>
+        <v>245</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -11176,7 +11176,7 @@
         <v>1330</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1331</v>
+        <v>461</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
@@ -11184,7 +11184,7 @@
         <v>1332</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1333</v>
+        <v>253</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
@@ -11192,7 +11192,7 @@
         <v>1334</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1335</v>
+        <v>589</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
@@ -11200,23 +11200,23 @@
         <v>1336</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>1338</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>1340</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1341</v>
+        <v>185</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
@@ -11224,15 +11224,15 @@
         <v>1342</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>1344</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1345</v>
+        <v>303</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
@@ -11240,7 +11240,7 @@
         <v>1346</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1347</v>
+        <v>615</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
@@ -11248,23 +11248,23 @@
         <v>1348</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
         <v>1350</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
         <v>1352</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1353</v>
+        <v>621</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
@@ -11272,7 +11272,7 @@
         <v>1354</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1355</v>
+        <v>321</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
@@ -11280,15 +11280,15 @@
         <v>1356</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
         <v>1358</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1359</v>
+        <v>507</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
@@ -11296,7 +11296,7 @@
         <v>1360</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1361</v>
+        <v>481</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
@@ -11304,7 +11304,7 @@
         <v>1362</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
@@ -11312,7 +11312,7 @@
         <v>1364</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1365</v>
+        <v>627</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
@@ -11320,7 +11320,7 @@
         <v>1366</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1367</v>
+        <v>289</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
@@ -11328,7 +11328,7 @@
         <v>1368</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1369</v>
+        <v>219</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
@@ -11336,7 +11336,7 @@
         <v>1370</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
@@ -11344,7 +11344,7 @@
         <v>1372</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1373</v>
+        <v>543</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
@@ -11352,7 +11352,7 @@
         <v>1374</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1375</v>
+        <v>241</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
@@ -11360,7 +11360,7 @@
         <v>1376</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1377</v>
+        <v>467</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
@@ -11368,7 +11368,7 @@
         <v>1378</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1379</v>
+        <v>281</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
@@ -11376,7 +11376,7 @@
         <v>1380</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1381</v>
+        <v>421</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
@@ -11384,7 +11384,7 @@
         <v>1382</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1383</v>
+        <v>479</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
@@ -11392,23 +11392,23 @@
         <v>1384</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>1386</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
         <v>1388</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1389</v>
+        <v>465</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
@@ -11416,7 +11416,7 @@
         <v>1390</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1391</v>
+        <v>273</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -11424,7 +11424,7 @@
         <v>1392</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1393</v>
+        <v>353</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
@@ -11432,7 +11432,7 @@
         <v>1394</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1395</v>
+        <v>573</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
@@ -11440,7 +11440,7 @@
         <v>1396</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1397</v>
+        <v>559</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
@@ -11448,7 +11448,7 @@
         <v>1398</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1399</v>
+        <v>211</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
@@ -11456,7 +11456,7 @@
         <v>1400</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1401</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
@@ -11464,7 +11464,7 @@
         <v>1402</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1403</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
@@ -11472,7 +11472,7 @@
         <v>1404</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1405</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
@@ -11480,7 +11480,7 @@
         <v>1406</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1407</v>
+        <v>127</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
@@ -11488,7 +11488,7 @@
         <v>1408</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1409</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
@@ -11496,7 +11496,7 @@
         <v>1410</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1411</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
@@ -11504,7 +11504,7 @@
         <v>1412</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1413</v>
+        <v>313</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
@@ -11512,7 +11512,7 @@
         <v>1414</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1415</v>
+        <v>309</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
@@ -11520,7 +11520,7 @@
         <v>1416</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1417</v>
+        <v>311</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
@@ -11528,7 +11528,7 @@
         <v>1418</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1419</v>
+        <v>291</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
@@ -11536,7 +11536,7 @@
         <v>1420</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1421</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
@@ -11544,7 +11544,7 @@
         <v>1422</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1423</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
@@ -11552,7 +11552,7 @@
         <v>1424</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1425</v>
+        <v>97</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
@@ -11560,7 +11560,7 @@
         <v>1426</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1427</v>
+        <v>275</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
@@ -11568,7 +11568,7 @@
         <v>1428</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1429</v>
+        <v>261</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
@@ -11576,7 +11576,7 @@
         <v>1430</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1431</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
@@ -11584,7 +11584,7 @@
         <v>1432</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1433</v>
+        <v>227</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
@@ -11592,7 +11592,7 @@
         <v>1434</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1435</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
@@ -11600,7 +11600,7 @@
         <v>1436</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1437</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
@@ -11608,7 +11608,7 @@
         <v>1438</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1439</v>
+        <v>49</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
@@ -11616,7 +11616,7 @@
         <v>1440</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1441</v>
+        <v>63</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
@@ -11624,7 +11624,7 @@
         <v>1442</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1443</v>
+        <v>55</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
@@ -11632,7 +11632,7 @@
         <v>1444</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1445</v>
+        <v>51</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
@@ -11640,7 +11640,7 @@
         <v>1446</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1447</v>
+        <v>53</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
@@ -11648,7 +11648,7 @@
         <v>1448</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1449</v>
+        <v>59</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
@@ -11656,7 +11656,7 @@
         <v>1450</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1451</v>
+        <v>57</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
@@ -11664,7 +11664,7 @@
         <v>1452</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1453</v>
+        <v>67</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
@@ -11672,7 +11672,7 @@
         <v>1454</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1455</v>
+        <v>505</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
@@ -11680,7 +11680,7 @@
         <v>1456</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
@@ -11696,7 +11696,7 @@
         <v>1460</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1461</v>
+        <v>691</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
@@ -11704,7 +11704,7 @@
         <v>1462</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1463</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
@@ -11712,7 +11712,7 @@
         <v>1464</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1465</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
@@ -11720,7 +11720,7 @@
         <v>1466</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1467</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
@@ -11728,7 +11728,7 @@
         <v>1468</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1469</v>
+        <v>743</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
@@ -11736,7 +11736,7 @@
         <v>1470</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1471</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
@@ -11744,7 +11744,7 @@
         <v>1472</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1473</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
@@ -11752,7 +11752,7 @@
         <v>1474</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1475</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
@@ -11760,15 +11760,15 @@
         <v>1476</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
         <v>1478</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1479</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
@@ -11776,7 +11776,7 @@
         <v>1480</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1481</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
@@ -11784,7 +11784,7 @@
         <v>1482</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1483</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
@@ -11792,7 +11792,7 @@
         <v>1484</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1485</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
@@ -11800,7 +11800,7 @@
         <v>1486</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1487</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
@@ -11808,15 +11808,15 @@
         <v>1488</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
         <v>1490</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1491</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
@@ -11824,7 +11824,7 @@
         <v>1492</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1493</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
@@ -11832,15 +11832,15 @@
         <v>1494</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
         <v>1496</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1497</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
@@ -11848,7 +11848,7 @@
         <v>1498</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1499</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
@@ -11856,7 +11856,7 @@
         <v>1500</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1501</v>
+        <v>119</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
@@ -11864,7 +11864,7 @@
         <v>1502</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1503</v>
+        <v>113</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
@@ -11872,7 +11872,7 @@
         <v>1504</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1505</v>
+        <v>111</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
@@ -11880,7 +11880,7 @@
         <v>1506</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1507</v>
+        <v>123</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
@@ -11888,7 +11888,7 @@
         <v>1508</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1509</v>
+        <v>117</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
@@ -11896,15 +11896,15 @@
         <v>1510</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
         <v>1512</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1513</v>
+        <v>895</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
@@ -11912,7 +11912,7 @@
         <v>1514</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1515</v>
+        <v>705</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
@@ -11920,23 +11920,23 @@
         <v>1516</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
         <v>1518</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1521</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
@@ -11944,7 +11944,7 @@
         <v>1522</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1523</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
@@ -11952,15 +11952,15 @@
         <v>1524</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
         <v>1526</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>1527</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="765" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
@@ -11968,7 +11968,7 @@
         <v>1528</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>1529</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
@@ -11976,7 +11976,7 @@
         <v>1530</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1531</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
@@ -11984,7 +11984,7 @@
         <v>1532</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>1533</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
@@ -11992,23 +11992,23 @@
         <v>1534</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
         <v>1536</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
@@ -12016,7 +12016,7 @@
         <v>1540</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
@@ -12024,7 +12024,7 @@
         <v>1542</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>1543</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
@@ -12032,7 +12032,7 @@
         <v>1544</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1545</v>
+        <v>717</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
@@ -12040,7 +12040,7 @@
         <v>1546</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1547</v>
+        <v>215</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
@@ -12048,7 +12048,7 @@
         <v>1548</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1549</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
@@ -12056,7 +12056,7 @@
         <v>1550</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1551</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
@@ -12064,7 +12064,7 @@
         <v>1552</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>1553</v>
+        <v>669</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
@@ -12072,7 +12072,7 @@
         <v>1554</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1555</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
@@ -12080,7 +12080,7 @@
         <v>1556</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1557</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
@@ -12088,7 +12088,7 @@
         <v>1558</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1559</v>
+        <v>687</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
@@ -12096,15 +12096,15 @@
         <v>1560</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
         <v>1562</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1563</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
@@ -12112,7 +12112,7 @@
         <v>1564</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>1565</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
@@ -12120,7 +12120,7 @@
         <v>1566</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1567</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
@@ -12128,7 +12128,7 @@
         <v>1568</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>1569</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -12136,7 +12136,7 @@
         <v>1570</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1571</v>
+        <v>653</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
@@ -12144,7 +12144,7 @@
         <v>1572</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1573</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
@@ -12152,7 +12152,7 @@
         <v>1574</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>1575</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
@@ -12160,7 +12160,7 @@
         <v>1576</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>1577</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
@@ -12168,7 +12168,7 @@
         <v>1578</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>1579</v>
+        <v>901</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
@@ -12176,7 +12176,7 @@
         <v>1580</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>1581</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
@@ -12184,7 +12184,7 @@
         <v>1582</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>1583</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
@@ -12192,7 +12192,7 @@
         <v>1584</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>1585</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
@@ -12200,7 +12200,7 @@
         <v>1586</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>1587</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
@@ -12208,7 +12208,7 @@
         <v>1588</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>1589</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
@@ -12216,7 +12216,7 @@
         <v>1590</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>1591</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
@@ -12224,7 +12224,7 @@
         <v>1592</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>1593</v>
+        <v>893</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
@@ -12232,7 +12232,7 @@
         <v>1594</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>1595</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
@@ -12240,7 +12240,7 @@
         <v>1596</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1597</v>
+        <v>95</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
@@ -12248,7 +12248,7 @@
         <v>1598</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1599</v>
+        <v>87</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
@@ -12256,7 +12256,7 @@
         <v>1600</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1601</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
@@ -12264,7 +12264,7 @@
         <v>1602</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1603</v>
+        <v>919</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
@@ -12272,7 +12272,7 @@
         <v>1604</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1605</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
@@ -12280,7 +12280,7 @@
         <v>1606</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1607</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
@@ -12288,15 +12288,15 @@
         <v>1608</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1611</v>
+        <v>553</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
@@ -12304,7 +12304,7 @@
         <v>1612</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1613</v>
+        <v>295</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
@@ -12312,7 +12312,7 @@
         <v>1614</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1615</v>
+        <v>299</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
@@ -12320,7 +12320,7 @@
         <v>1616</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1617</v>
+        <v>279</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
@@ -12328,7 +12328,7 @@
         <v>1618</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1619</v>
+        <v>69</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
@@ -12336,7 +12336,7 @@
         <v>1620</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1621</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
@@ -12344,7 +12344,7 @@
         <v>1622</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1623</v>
+        <v>707</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
@@ -12352,7 +12352,7 @@
         <v>1624</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1625</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
@@ -12360,7 +12360,7 @@
         <v>1626</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1627</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
@@ -12368,7 +12368,7 @@
         <v>1628</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
@@ -12376,7 +12376,7 @@
         <v>1630</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1631</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
@@ -12384,7 +12384,7 @@
         <v>1632</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1633</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
@@ -12392,7 +12392,7 @@
         <v>1634</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1635</v>
+        <v>723</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
@@ -12400,7 +12400,7 @@
         <v>1636</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>1637</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
@@ -12408,15 +12408,15 @@
         <v>1638</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2" ht="22.5" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
         <v>1640</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>1641</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
@@ -12437,13 +12437,10 @@
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="3"/>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A828" s="3"/>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A829" s="3"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B827">
+    <sortCondition ref="B1:B827"/>
+  </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.31496062992125984" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" fitToHeight="12" orientation="portrait" r:id="rId1"/>
